--- a/Raccolta_Dati.xlsx
+++ b/Raccolta_Dati.xlsx
@@ -1,23 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId1"/>
+    <sheet name="5" sheetId="5" r:id="rId2"/>
+    <sheet name="10" sheetId="2" r:id="rId3"/>
+    <sheet name="30" sheetId="3" r:id="rId4"/>
+    <sheet name="50" sheetId="6" r:id="rId5"/>
+    <sheet name="80" sheetId="7" r:id="rId6"/>
+    <sheet name="100" sheetId="8" r:id="rId7"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId8"/>
+    <sheet name="Foglio9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
+  <si>
+    <t>Dati raccolti dalle simulazioni</t>
+  </si>
+  <si>
+    <t>Tempo Totale Tx [s]</t>
+  </si>
+  <si>
+    <t>N° Totale Nodi</t>
+  </si>
+  <si>
+    <t>% Nodi Raggiunti [# %]</t>
+  </si>
+  <si>
+    <t>N° Nodi Raggiunti [#]</t>
+  </si>
+  <si>
+    <t>Raggio portata [m]</t>
+  </si>
+  <si>
+    <t>Numero Nodi</t>
+  </si>
+  <si>
+    <t>Ripetizione</t>
+  </si>
+  <si>
+    <t>starting node</t>
+  </si>
+  <si>
+    <t>Raggio BT [m]</t>
+  </si>
+  <si>
+    <t>area length</t>
+  </si>
+  <si>
+    <t>area width</t>
+  </si>
+  <si>
+    <t>Tempo Totale Tx Medio</t>
+  </si>
+  <si>
+    <t>N°Nodi Raggiunti Medio</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dist 1 -2</t>
+  </si>
+  <si>
+    <t>dist 3-2</t>
+  </si>
+  <si>
+    <t>dist 3-4</t>
+  </si>
+  <si>
+    <t>Packet Size</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +99,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -42,12 +197,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -55,6 +357,272 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio9!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio9!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio9!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.499000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio9!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio9!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.4560000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio9!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio9!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.691000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio9!$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.3259999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio9!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio9!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.1760000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="171544960"/>
+        <c:axId val="147015936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="171544960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147015936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147015936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171544960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,39 +910,2469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>11.910999999999998</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13.24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13.24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13.24</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13.24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>36.97</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>49.93</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37.69</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>86.63</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>54.376999999999995</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>86.62</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13">
+        <f>$I5/$A$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>59.94</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13">
+        <f>$I6/$A$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>25.47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="13">
+        <f>$I7/$A$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>49.93</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13">
+        <f>$I8/$A$4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>30.47</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4</v>
+      </c>
+      <c r="J9" s="13">
+        <f>$I9/$A$4</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>62.16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="13">
+        <f>$I10/$A$4</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>49.92</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="13">
+        <f>$I11/$A$4</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" s="11"/>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>49.92</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="13">
+        <f>$I12/$A$4</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42.71</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13">
+        <f>$I13/$A$4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>147.78</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>108.196</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.54666666666666675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>152.78</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>128.32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>28</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>91.64</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>86.61</v>
+      </c>
+      <c r="I9" s="7">
+        <v>11</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>172.25</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>30.47</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>111.08</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>86.63</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>128.32</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>0.92</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>121.60799999999999</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.81600000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>140.57</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>116.09</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>116.09</v>
+      </c>
+      <c r="I7" s="7">
+        <v>40</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>111.1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>37</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>42</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>147.79</v>
+      </c>
+      <c r="I12" s="7">
+        <v>49</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>140.55000000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>46</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>0.1125</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>81.685000000000002</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.17375000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>116.1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>26</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>165.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>30.47</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>13.23</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>238.4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>47</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.58750000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>49.93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>25.46</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>98.85</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>111.08</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13">
+        <f>$I4/$A$4</f>
+        <v>0.16</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(H4:H13)</f>
+        <v>127.66499999999999</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(J4:J13)</f>
+        <v>0.20700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J13" si="0">$I5/$A$4</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>275.11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>39</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>184.48</v>
+      </c>
+      <c r="I7" s="7">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>221.16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>34</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>218.94</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>49.92</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>25.46</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>116.1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="45">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <f>$E4/$B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F17" si="0">$E5/$B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>300</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>400</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>500</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>800</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F3" s="18">
+        <v>13.061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="18">
+        <v>13.061</v>
+      </c>
+      <c r="E4" s="18">
+        <v>12.499000000000001</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18">
+        <v>12.499000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="F5" s="18">
+        <v>13.779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>14.691000000000001</v>
+      </c>
+      <c r="F6" s="18">
+        <v>7.3259999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.347</v>
+      </c>
+      <c r="F7" s="18">
+        <v>9.1760000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18">
+        <v>13.779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18">
+        <v>14.691000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18">
+        <v>7.3259999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="18">
+        <v>9.1760000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>SQRT((C5-C7)^2+(C6-C8)^2)</f>
+        <v>12.792376245248574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <f>SQRT((C7-C9)^2+(C8-C10)^2)</f>
+        <v>11.266163233328372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>SQRT((C9-C11)^2+(C10-C12)^2)</f>
+        <v>13.471630784726846</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>